--- a/lib/deviceToDonator.xlsx
+++ b/lib/deviceToDonator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\yaazoru\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47CB5A5-659B-431A-A241-3D8AA1F1D323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B219729E-7239-4385-82AE-8EDEAC93DC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9F3DF62E-83AB-472E-9D08-CA2C32615E73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F3DF62E-83AB-472E-9D08-CA2C32615E73}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -6577,9 +6577,6 @@
     <t>last_name</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>device_number</t>
   </si>
   <si>
@@ -6644,6 +6641,9 @@
   </si>
   <si>
     <t>שוורצמן</t>
+  </si>
+  <si>
+    <t>receivedAt</t>
   </si>
 </sst>
 </file>
@@ -7286,8 +7286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CC6D0E-32F5-4CC2-BD07-334C071C9F90}">
   <dimension ref="A1:S391"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7310,7 +7310,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2160</v>
@@ -7328,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2172</v>
+        <v>2194</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2164</v>
@@ -25640,8 +25640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A20716-F9BD-496B-9CCD-B3DD29AF7F25}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView rightToLeft="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -25666,7 +25666,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2160</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2172</v>
+        <v>2194</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2164</v>
@@ -25734,7 +25734,7 @@
         <v>851221555</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>193</v>
@@ -25749,7 +25749,7 @@
         <v>1387</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>162</v>
@@ -25758,11 +25758,11 @@
         <v>687</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="44" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="O2" s="6">
         <v>930</v>
@@ -25789,10 +25789,10 @@
         <v>254789654</v>
       </c>
       <c r="D3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E3" t="s">
         <v>2178</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2179</v>
       </c>
       <c r="G3" s="45">
         <v>45608</v>
@@ -25807,13 +25807,13 @@
         <v>112</v>
       </c>
       <c r="K3" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="L3" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="N3" s="46" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="O3">
         <v>800</v>
@@ -25851,16 +25851,16 @@
         <v>421</v>
       </c>
       <c r="K4" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="L4" t="s">
+        <v>2182</v>
+      </c>
+      <c r="M4" t="s">
         <v>2183</v>
       </c>
-      <c r="M4" t="s">
-        <v>2184</v>
-      </c>
       <c r="N4" s="46" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="O4">
         <v>820</v>
@@ -25869,7 +25869,7 @@
         <v>258741203</v>
       </c>
       <c r="Q4" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -25883,13 +25883,13 @@
         <v>258963258</v>
       </c>
       <c r="D5" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="E5" t="s">
         <v>193</v>
       </c>
       <c r="Q5" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -25924,10 +25924,10 @@
         <v>1714</v>
       </c>
       <c r="L6" t="s">
+        <v>2189</v>
+      </c>
+      <c r="N6" s="46" t="s">
         <v>2190</v>
-      </c>
-      <c r="N6" s="46" t="s">
-        <v>2191</v>
       </c>
       <c r="O6">
         <v>880</v>
@@ -25950,10 +25950,10 @@
         <v>258963214</v>
       </c>
       <c r="D7" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E7" t="s">
         <v>2192</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2193</v>
       </c>
       <c r="G7" s="45">
         <v>45628</v>
@@ -25962,7 +25962,7 @@
         <v>677</v>
       </c>
       <c r="I7" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="L7">
         <v>5321478562</v>

--- a/lib/deviceToDonator.xlsx
+++ b/lib/deviceToDonator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\yaazoru\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD653C84-DB0C-4C3D-867A-743F7EEEF4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF87E22-3314-4149-A30B-DBBDC95B0342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9F3DF62E-83AB-472E-9D08-CA2C32615E73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F3DF62E-83AB-472E-9D08-CA2C32615E73}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3459" uniqueCount="2194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="2193">
   <si>
     <t>בדיקות</t>
   </si>
@@ -4322,9 +4322,6 @@
   </si>
   <si>
     <t>051-0005199</t>
-  </si>
-  <si>
-    <t>27/10 2024</t>
   </si>
   <si>
     <t>ויספיש</t>
@@ -7301,8 +7298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CC6D0E-32F5-4CC2-BD07-334C071C9F90}">
   <dimension ref="A1:S391"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="C265" workbookViewId="0">
-      <selection activeCell="C279" sqref="A279:XFD279"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F222" workbookViewId="0">
+      <selection activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7325,52 +7322,52 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2159</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2161</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2167</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>2168</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>2164</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2165</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2166</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>2</v>
@@ -18671,20 +18668,20 @@
         <v>193</v>
       </c>
       <c r="F236" s="8"/>
-      <c r="G236" s="8" t="s">
-        <v>1421</v>
+      <c r="G236" s="50">
+        <v>45592</v>
       </c>
       <c r="H236" s="8" t="s">
         <v>1176</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="J236" s="8" t="s">
         <v>13</v>
       </c>
       <c r="K236" s="8" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="L236" s="8">
         <v>527642865</v>
@@ -18693,7 +18690,7 @@
         <v>548472203</v>
       </c>
       <c r="N236" s="8" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="O236" s="8">
         <v>930</v>
@@ -18702,7 +18699,7 @@
         <v>62846993</v>
       </c>
       <c r="Q236" s="8" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="R236" s="8"/>
       <c r="S236" s="8">
@@ -18714,39 +18711,39 @@
         <v>5200</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C237" s="6">
         <v>350988950139271</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E237" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F237" s="22"/>
       <c r="G237" s="6" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H237" s="6" t="s">
         <v>259</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="J237" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K237" s="6" t="s">
+        <v>1429</v>
+      </c>
+      <c r="L237" s="6" t="s">
         <v>1430</v>
-      </c>
-      <c r="L237" s="6" t="s">
-        <v>1431</v>
       </c>
       <c r="M237" s="22"/>
       <c r="N237" s="6" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="O237" s="6">
         <v>905</v>
@@ -18755,7 +18752,7 @@
         <v>200522100</v>
       </c>
       <c r="Q237" s="6" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="R237" s="6"/>
       <c r="S237" s="6"/>
@@ -18765,39 +18762,39 @@
         <v>5201</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C238" s="8">
         <v>350988950138919</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E238" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F238" s="8"/>
       <c r="G238" s="8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H238" s="8" t="s">
         <v>1436</v>
       </c>
-      <c r="H238" s="8" t="s">
+      <c r="I238" s="8" t="s">
         <v>1437</v>
-      </c>
-      <c r="I238" s="8" t="s">
-        <v>1438</v>
       </c>
       <c r="J238" s="8" t="s">
         <v>162</v>
       </c>
       <c r="K238" s="8" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L238" s="8" t="s">
         <v>1439</v>
-      </c>
-      <c r="L238" s="8" t="s">
-        <v>1440</v>
       </c>
       <c r="M238" s="24"/>
       <c r="N238" s="8" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="O238" s="8">
         <v>930</v>
@@ -18806,7 +18803,7 @@
         <v>580712800</v>
       </c>
       <c r="Q238" s="8" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="R238" s="8"/>
       <c r="S238" s="8">
@@ -18818,13 +18815,13 @@
         <v>5202</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C239" s="6">
         <v>350988950138695</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E239" s="6" t="s">
         <v>193</v>
@@ -18834,23 +18831,23 @@
         <v>45575</v>
       </c>
       <c r="H239" s="6" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I239" s="6" t="s">
         <v>1445</v>
-      </c>
-      <c r="I239" s="6" t="s">
-        <v>1446</v>
       </c>
       <c r="J239" s="6" t="s">
         <v>703</v>
       </c>
       <c r="K239" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="L239" s="6">
         <v>548451813</v>
       </c>
       <c r="M239" s="6"/>
       <c r="N239" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="O239" s="6">
         <v>880</v>
@@ -18869,13 +18866,13 @@
         <v>5203</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C240" s="8">
         <v>350988950137812</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E240" s="8" t="s">
         <v>193</v>
@@ -18888,20 +18885,20 @@
         <v>650</v>
       </c>
       <c r="I240" s="8" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="J240" s="8" t="s">
         <v>7</v>
       </c>
       <c r="K240" s="8" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="L240" s="8">
         <v>533138199</v>
       </c>
       <c r="M240" s="8"/>
       <c r="N240" s="8" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="O240" s="8">
         <v>880</v>
@@ -18920,39 +18917,39 @@
         <v>5204</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C241" s="6">
         <v>350988950139115</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E241" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F241" s="6"/>
       <c r="G241" s="6" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H241" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="H241" s="6" t="s">
+      <c r="I241" s="6" t="s">
         <v>1457</v>
-      </c>
-      <c r="I241" s="6" t="s">
-        <v>1458</v>
       </c>
       <c r="J241" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K241" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="L241" s="6" t="s">
         <v>1459</v>
-      </c>
-      <c r="L241" s="6" t="s">
-        <v>1460</v>
       </c>
       <c r="M241" s="6"/>
       <c r="N241" s="6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="O241" s="6">
         <v>930</v>
@@ -18961,7 +18958,7 @@
         <v>325727626</v>
       </c>
       <c r="Q241" s="6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="R241" s="6"/>
       <c r="S241" s="6">
@@ -18973,35 +18970,35 @@
         <v>5205</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C242" s="8">
         <v>350988950149270</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E242" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F242" s="8"/>
       <c r="G242" s="8" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H242" s="8" t="s">
         <v>1465</v>
       </c>
-      <c r="H242" s="8" t="s">
+      <c r="I242" s="8" t="s">
         <v>1466</v>
-      </c>
-      <c r="I242" s="8" t="s">
-        <v>1467</v>
       </c>
       <c r="J242" s="8" t="s">
         <v>13</v>
       </c>
       <c r="K242" s="8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="L242" s="8" t="s">
         <v>1468</v>
-      </c>
-      <c r="L242" s="8" t="s">
-        <v>1469</v>
       </c>
       <c r="M242" s="8"/>
       <c r="N242" s="8" t="s">
@@ -19014,7 +19011,7 @@
         <v>51735959</v>
       </c>
       <c r="Q242" s="8" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="R242" s="8"/>
       <c r="S242" s="8"/>
@@ -19024,39 +19021,39 @@
         <v>5206</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C243" s="6">
         <v>350988950139016</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F243" s="6"/>
       <c r="G243" s="6" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H243" s="6" t="s">
         <v>259</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="J243" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K243" s="6" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="L243" s="6">
         <v>583267626</v>
       </c>
       <c r="M243" s="6"/>
       <c r="N243" s="6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="O243" s="6">
         <v>8880</v>
@@ -19065,7 +19062,7 @@
         <v>31595702</v>
       </c>
       <c r="Q243" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="R243" s="6"/>
       <c r="S243" s="6"/>
@@ -19075,13 +19072,13 @@
         <v>5207</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C244" s="8">
         <v>350988950136004</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E244" s="8" t="s">
         <v>193</v>
@@ -19106,13 +19103,13 @@
         <v>5208</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C245" s="6">
         <v>350988950134363</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E245" s="6" t="s">
         <v>193</v>
@@ -19125,20 +19122,20 @@
         <v>693</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="J245" s="6" t="s">
         <v>178</v>
       </c>
       <c r="K245" s="6" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="L245" s="6">
         <v>548438415</v>
       </c>
       <c r="M245" s="6"/>
       <c r="N245" s="6" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O245" s="6">
         <v>880</v>
@@ -19147,7 +19144,7 @@
         <v>61277109</v>
       </c>
       <c r="Q245" s="6" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="R245" s="6"/>
       <c r="S245" s="6"/>
@@ -19157,13 +19154,13 @@
         <v>5209</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C246" s="8">
         <v>350988950138836</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E246" s="8" t="s">
         <v>193</v>
@@ -19188,13 +19185,13 @@
         <v>5210</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C247" s="6">
         <v>350988950161622</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E247" s="6" t="s">
         <v>193</v>
@@ -19213,7 +19210,7 @@
         <v>13</v>
       </c>
       <c r="K247" s="6" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="L247" s="6">
         <v>527653495</v>
@@ -19222,7 +19219,7 @@
         <v>773450942</v>
       </c>
       <c r="N247" s="6" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="O247" s="6">
         <v>880</v>
@@ -19231,7 +19228,7 @@
         <v>25115817</v>
       </c>
       <c r="Q247" s="41" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="R247" s="6"/>
       <c r="S247" s="6"/>
@@ -19241,39 +19238,39 @@
         <v>5211</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C248" s="8">
         <v>350988950111411</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E248" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F248" s="8"/>
       <c r="G248" s="8" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H248" s="8" t="s">
         <v>115</v>
       </c>
       <c r="I248" s="8" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="J248" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K248" s="8" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="L248" s="8">
         <v>548423418</v>
       </c>
       <c r="M248" s="8"/>
       <c r="N248" s="8" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="O248" s="8">
         <v>880</v>
@@ -19282,7 +19279,7 @@
         <v>310062047</v>
       </c>
       <c r="Q248" s="30" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="R248" s="8"/>
       <c r="S248" s="8"/>
@@ -19292,13 +19289,13 @@
         <v>5212</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C249" s="6">
         <v>351672998668256</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>193</v>
@@ -19311,20 +19308,20 @@
         <v>1414</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="J249" s="6" t="s">
         <v>162</v>
       </c>
       <c r="K249" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="L249" s="6">
         <v>504116055</v>
       </c>
       <c r="M249" s="22"/>
       <c r="N249" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="O249" s="6">
         <v>880</v>
@@ -19333,7 +19330,7 @@
         <v>28066041</v>
       </c>
       <c r="Q249" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="R249" s="22"/>
       <c r="S249" s="22"/>
@@ -19343,13 +19340,13 @@
         <v>5213</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C250" s="8">
         <v>351672998667993</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E250" s="8" t="s">
         <v>193</v>
@@ -19362,20 +19359,20 @@
         <v>410</v>
       </c>
       <c r="I250" s="12" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J250" s="8" t="s">
         <v>112</v>
       </c>
       <c r="K250" s="8" t="s">
+        <v>1508</v>
+      </c>
+      <c r="L250" s="8" t="s">
         <v>1509</v>
-      </c>
-      <c r="L250" s="8" t="s">
-        <v>1510</v>
       </c>
       <c r="M250" s="8"/>
       <c r="N250" s="8" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="O250" s="8">
         <v>930</v>
@@ -19384,7 +19381,7 @@
         <v>301190013</v>
       </c>
       <c r="Q250" s="8" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="R250" s="8"/>
       <c r="S250" s="8">
@@ -19396,13 +19393,13 @@
         <v>5214</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C251" s="6">
         <v>351672998644943</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E251" s="6" t="s">
         <v>193</v>
@@ -19429,13 +19426,13 @@
         <v>5215</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C252" s="8">
         <v>351672998668835</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E252" s="8" t="s">
         <v>193</v>
@@ -19445,23 +19442,23 @@
         <v>1352</v>
       </c>
       <c r="H252" s="8" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I252" s="8" t="s">
         <v>1517</v>
-      </c>
-      <c r="I252" s="8" t="s">
-        <v>1518</v>
       </c>
       <c r="J252" s="8" t="s">
         <v>282</v>
       </c>
       <c r="K252" s="8" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="L252" s="8">
         <v>527667426</v>
       </c>
       <c r="M252" s="8"/>
       <c r="N252" s="8" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="O252" s="8">
         <v>880</v>
@@ -19480,13 +19477,13 @@
         <v>5216</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C253" s="6">
         <v>351672998679006</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>193</v>
@@ -19496,23 +19493,23 @@
         <v>45334</v>
       </c>
       <c r="H253" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I253" s="6" t="s">
         <v>1523</v>
-      </c>
-      <c r="I253" s="6" t="s">
-        <v>1524</v>
       </c>
       <c r="J253" s="6" t="s">
         <v>312</v>
       </c>
       <c r="K253" s="6" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="L253" s="6">
         <v>556762323</v>
       </c>
       <c r="M253" s="6"/>
       <c r="N253" s="6" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="O253" s="6">
         <v>880</v>
@@ -19529,13 +19526,13 @@
         <v>5217</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C254" s="8">
         <v>351672998677919</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E254" s="8" t="s">
         <v>193</v>
@@ -19560,13 +19557,13 @@
         <v>5218</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C255" s="6">
         <v>351672998668082</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E255" s="6" t="s">
         <v>193</v>
@@ -19585,14 +19582,14 @@
         <v>1059</v>
       </c>
       <c r="K255" s="6" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="L255" s="6">
         <v>527133245</v>
       </c>
       <c r="M255" s="6"/>
       <c r="N255" s="6" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="O255" s="6">
         <v>880</v>
@@ -19611,39 +19608,39 @@
         <v>5219</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C256" s="8">
         <v>351672998670831</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E256" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F256" s="8"/>
       <c r="G256" s="8" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H256" s="8" t="s">
         <v>1535</v>
       </c>
-      <c r="H256" s="8" t="s">
+      <c r="I256" s="8" t="s">
         <v>1536</v>
-      </c>
-      <c r="I256" s="8" t="s">
-        <v>1537</v>
       </c>
       <c r="J256" s="8" t="s">
         <v>312</v>
       </c>
       <c r="K256" s="8" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="L256" s="8">
         <v>527669279</v>
       </c>
       <c r="M256" s="8"/>
       <c r="N256" s="8" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="O256" s="8">
         <v>880</v>
@@ -19662,13 +19659,13 @@
         <v>5220</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C257" s="6">
         <v>351672998673686</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E257" s="6" t="s">
         <v>193</v>
@@ -19713,13 +19710,13 @@
         <v>5221</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C258" s="8">
         <v>351672998668918</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E258" s="8" t="s">
         <v>193</v>
@@ -19729,23 +19726,23 @@
         <v>1303</v>
       </c>
       <c r="H258" s="8" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I258" s="8" t="s">
         <v>1544</v>
-      </c>
-      <c r="I258" s="8" t="s">
-        <v>1545</v>
       </c>
       <c r="J258" s="8" t="s">
         <v>703</v>
       </c>
       <c r="K258" s="8" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="L258" s="8">
         <v>527182159</v>
       </c>
       <c r="M258" s="8"/>
       <c r="N258" s="8" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="O258" s="8">
         <v>880</v>
@@ -19764,37 +19761,37 @@
         <v>5222</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C259" s="6">
         <v>351672998667639</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E259" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F259" s="6"/>
       <c r="G259" s="6" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H259" s="6" t="s">
         <v>1550</v>
       </c>
-      <c r="H259" s="6" t="s">
+      <c r="I259" s="6" t="s">
         <v>1551</v>
-      </c>
-      <c r="I259" s="6" t="s">
-        <v>1552</v>
       </c>
       <c r="J259" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K259" s="6"/>
       <c r="L259" s="6" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="M259" s="6"/>
       <c r="N259" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="O259" s="6">
         <v>930</v>
@@ -19803,7 +19800,7 @@
         <v>308109438</v>
       </c>
       <c r="Q259" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="R259" s="6"/>
       <c r="S259" s="6">
@@ -19815,13 +19812,13 @@
         <v>5223</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C260" s="8">
         <v>351672998674015</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>193</v>
@@ -19831,7 +19828,7 @@
         <v>45301</v>
       </c>
       <c r="H260" s="8" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="I260" s="8" t="s">
         <v>122</v>
@@ -19840,14 +19837,14 @@
         <v>13</v>
       </c>
       <c r="K260" s="8" t="s">
+        <v>1558</v>
+      </c>
+      <c r="L260" s="8" t="s">
         <v>1559</v>
-      </c>
-      <c r="L260" s="8" t="s">
-        <v>1560</v>
       </c>
       <c r="M260" s="8"/>
       <c r="N260" s="8" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="O260" s="8">
         <v>880</v>
@@ -19856,7 +19853,7 @@
         <v>211975081</v>
       </c>
       <c r="Q260" s="8" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="R260" s="8"/>
       <c r="S260" s="8"/>
@@ -19866,13 +19863,13 @@
         <v>5224</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C261" s="6">
         <v>351672998674429</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E261" s="6" t="s">
         <v>193</v>
@@ -19885,20 +19882,20 @@
         <v>176</v>
       </c>
       <c r="I261" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="J261" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K261" s="6" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L261" s="9" t="s">
         <v>1566</v>
-      </c>
-      <c r="L261" s="9" t="s">
-        <v>1567</v>
       </c>
       <c r="M261" s="6"/>
       <c r="N261" s="6" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="O261" s="6">
         <v>880</v>
@@ -19917,20 +19914,20 @@
         <v>5225</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C262" s="8">
         <v>351672998668611</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="E262" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F262" s="8"/>
       <c r="G262" s="8" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H262" s="8" t="s">
         <v>5</v>
@@ -19942,14 +19939,14 @@
         <v>312</v>
       </c>
       <c r="K262" s="8" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="L262" s="8">
         <v>533110930</v>
       </c>
       <c r="M262" s="8"/>
       <c r="N262" s="8" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="O262" s="8">
         <v>880</v>
@@ -19968,13 +19965,13 @@
         <v>5226</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C263" s="6">
         <v>351672998649942</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E263" s="6" t="s">
         <v>193</v>
@@ -19993,14 +19990,14 @@
         <v>162</v>
       </c>
       <c r="K263" s="6" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="L263" s="6">
         <v>548436485</v>
       </c>
       <c r="M263" s="6"/>
       <c r="N263" s="6" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="O263" s="6">
         <v>930</v>
@@ -20009,7 +20006,7 @@
         <v>24401804</v>
       </c>
       <c r="Q263" s="6" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="R263" s="6"/>
       <c r="S263" s="6">
@@ -20021,13 +20018,13 @@
         <v>5227</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C264" s="8">
         <v>351672998674403</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E264" s="8" t="s">
         <v>193</v>
@@ -20037,23 +20034,23 @@
         <v>45637</v>
       </c>
       <c r="H264" s="8" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I264" s="8" t="s">
         <v>1581</v>
-      </c>
-      <c r="I264" s="8" t="s">
-        <v>1582</v>
       </c>
       <c r="J264" s="8" t="s">
         <v>112</v>
       </c>
       <c r="K264" s="8" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="L264" s="8">
         <v>527150610</v>
       </c>
       <c r="M264" s="8"/>
       <c r="N264" s="8" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="O264" s="8">
         <v>930</v>
@@ -20062,7 +20059,7 @@
         <v>40723926</v>
       </c>
       <c r="Q264" s="30" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="R264" s="8"/>
       <c r="S264" s="8">
@@ -20074,13 +20071,13 @@
         <v>5228</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C265" s="6">
         <v>351672998676879</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E265" s="6" t="s">
         <v>193</v>
@@ -20099,14 +20096,14 @@
         <v>312</v>
       </c>
       <c r="K265" s="6" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="L265" s="6">
         <v>527622285</v>
       </c>
       <c r="M265" s="6"/>
       <c r="N265" s="6" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="O265" s="6">
         <v>930</v>
@@ -20115,7 +20112,7 @@
         <v>55932677</v>
       </c>
       <c r="Q265" s="6" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="R265" s="6"/>
       <c r="S265" s="6">
@@ -20127,39 +20124,39 @@
         <v>5229</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C266" s="8">
         <v>351672998645114</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E266" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F266" s="8"/>
       <c r="G266" s="8" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H266" s="8" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I266" s="8" t="s">
         <v>1592</v>
-      </c>
-      <c r="I266" s="8" t="s">
-        <v>1593</v>
       </c>
       <c r="J266" s="8" t="s">
         <v>312</v>
       </c>
       <c r="K266" s="8" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="L266" s="8">
         <v>504161401</v>
       </c>
       <c r="M266" s="8"/>
       <c r="N266" s="8" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="O266" s="8">
         <v>880</v>
@@ -20178,13 +20175,13 @@
         <v>5230</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C267" s="6">
         <v>351672998677323</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E267" s="6" t="s">
         <v>193</v>
@@ -20197,20 +20194,20 @@
         <v>410</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="J267" s="6" t="s">
         <v>112</v>
       </c>
       <c r="K267" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="L267" s="6" t="s">
         <v>1599</v>
-      </c>
-      <c r="L267" s="6" t="s">
-        <v>1600</v>
       </c>
       <c r="M267" s="6"/>
       <c r="N267" s="6" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="O267" s="6">
         <v>880</v>
@@ -20227,13 +20224,13 @@
         <v>5231</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C268" s="8">
         <v>351672998646294</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E268" s="8" t="s">
         <v>193</v>
@@ -20243,23 +20240,23 @@
         <v>627</v>
       </c>
       <c r="H268" s="8" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I268" s="8" t="s">
         <v>1604</v>
-      </c>
-      <c r="I268" s="8" t="s">
-        <v>1605</v>
       </c>
       <c r="J268" s="8" t="s">
         <v>887</v>
       </c>
       <c r="K268" s="8" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="L268" s="8">
         <v>504105280</v>
       </c>
       <c r="M268" s="8"/>
       <c r="N268" s="8" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="O268" s="8">
         <v>880</v>
@@ -20278,13 +20275,13 @@
         <v>5232</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C269" s="6">
         <v>351672996735115</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E269" s="6" t="s">
         <v>193</v>
@@ -20309,13 +20306,13 @@
         <v>5233</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C270" s="8">
         <v>351672996723426</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E270" s="8" t="s">
         <v>193</v>
@@ -20328,20 +20325,20 @@
         <v>346</v>
       </c>
       <c r="I270" s="8" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="J270" s="8" t="s">
         <v>13</v>
       </c>
       <c r="K270" s="8" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L270" s="8" t="s">
         <v>1613</v>
-      </c>
-      <c r="L270" s="8" t="s">
-        <v>1614</v>
       </c>
       <c r="M270" s="8"/>
       <c r="N270" s="8" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="O270" s="8">
         <v>930</v>
@@ -20350,7 +20347,7 @@
         <v>301900585</v>
       </c>
       <c r="Q270" s="8" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="R270" s="8"/>
       <c r="S270" s="8">
@@ -20362,13 +20359,13 @@
         <v>5234</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C271" s="6">
         <v>351672996734944</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E271" s="6" t="s">
         <v>193</v>
@@ -20393,13 +20390,13 @@
         <v>5235</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C272" s="8">
         <v>351672996732070</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E272" s="8" t="s">
         <v>193</v>
@@ -20418,14 +20415,14 @@
         <v>13</v>
       </c>
       <c r="K272" s="8" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L272" s="8" t="s">
         <v>1621</v>
-      </c>
-      <c r="L272" s="8" t="s">
-        <v>1622</v>
       </c>
       <c r="M272" s="8"/>
       <c r="N272" s="8" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="O272" s="8">
         <v>930</v>
@@ -20434,7 +20431,7 @@
         <v>302901731</v>
       </c>
       <c r="Q272" s="8" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="R272" s="8"/>
       <c r="S272" s="8">
@@ -20446,13 +20443,13 @@
         <v>5236</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C273" s="6">
         <v>351672996736683</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E273" s="6" t="s">
         <v>193</v>
@@ -20462,23 +20459,23 @@
         <v>1335</v>
       </c>
       <c r="H273" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I273" s="6" t="s">
         <v>1627</v>
-      </c>
-      <c r="I273" s="6" t="s">
-        <v>1628</v>
       </c>
       <c r="J273" s="6" t="s">
         <v>703</v>
       </c>
       <c r="K273" s="6" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="L273" s="6">
         <v>527677274</v>
       </c>
       <c r="M273" s="6"/>
       <c r="N273" s="6" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="O273" s="6">
         <v>880</v>
@@ -20497,20 +20494,20 @@
         <v>5237</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C274" s="8">
         <v>351672996734753</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E274" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F274" s="8"/>
       <c r="G274" s="8" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H274" s="8" t="s">
         <v>80</v>
@@ -20522,14 +20519,14 @@
         <v>13</v>
       </c>
       <c r="K274" s="8" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="L274" s="8">
         <v>527604961</v>
       </c>
       <c r="M274" s="8"/>
       <c r="N274" s="8" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="O274" s="8">
         <v>880</v>
@@ -20548,13 +20545,13 @@
         <v>5238</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C275" s="6">
         <v>351672996732468</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E275" s="6" t="s">
         <v>193</v>
@@ -20567,20 +20564,20 @@
         <v>80</v>
       </c>
       <c r="I275" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="J275" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K275" s="6" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L275" s="6" t="s">
         <v>1639</v>
-      </c>
-      <c r="L275" s="6" t="s">
-        <v>1640</v>
       </c>
       <c r="M275" s="6"/>
       <c r="N275" s="6" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="O275" s="6">
         <v>880</v>
@@ -20599,13 +20596,13 @@
         <v>5239</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C276" s="8">
         <v>351672996735206</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E276" s="24"/>
       <c r="F276" s="8"/>
@@ -20613,23 +20610,23 @@
         <v>1352</v>
       </c>
       <c r="H276" s="8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I276" s="8" t="s">
         <v>1644</v>
-      </c>
-      <c r="I276" s="8" t="s">
-        <v>1645</v>
       </c>
       <c r="J276" s="8" t="s">
         <v>13</v>
       </c>
       <c r="K276" s="8" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="L276" s="8">
         <v>583240133</v>
       </c>
       <c r="M276" s="24"/>
       <c r="N276" s="8" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="O276" s="8">
         <v>930</v>
@@ -20648,39 +20645,39 @@
         <v>5240</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C277" s="6">
         <v>351672996722576</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E277" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F277" s="6"/>
       <c r="G277" s="6" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H277" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I277" s="6" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="J277" s="6" t="s">
         <v>419</v>
       </c>
       <c r="K277" s="6" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="L277" s="6">
         <v>548410152</v>
       </c>
       <c r="M277" s="6"/>
       <c r="N277" s="6" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="O277" s="6">
         <v>880</v>
@@ -20689,7 +20686,7 @@
         <v>300666054</v>
       </c>
       <c r="Q277" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="R277" s="6"/>
       <c r="S277" s="6"/>
@@ -20699,39 +20696,39 @@
         <v>5241</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C278" s="8">
         <v>351672996734456</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E278" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F278" s="8"/>
       <c r="G278" s="8" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H278" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I278" s="8" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="J278" s="8" t="s">
         <v>419</v>
       </c>
       <c r="K278" s="8" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="L278" s="8">
         <v>527642005</v>
       </c>
       <c r="M278" s="8"/>
       <c r="N278" s="8" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="O278" s="8">
         <v>880</v>
@@ -20750,13 +20747,13 @@
         <v>5242</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C279" s="6">
         <v>351672996734431</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E279" s="6" t="s">
         <v>193</v>
@@ -20766,23 +20763,23 @@
         <v>45580</v>
       </c>
       <c r="H279" s="6" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I279" s="6" t="s">
         <v>1663</v>
-      </c>
-      <c r="I279" s="6" t="s">
-        <v>1664</v>
       </c>
       <c r="J279" s="6" t="s">
         <v>162</v>
       </c>
       <c r="K279" s="6" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="L279" s="6">
         <v>583246050</v>
       </c>
       <c r="M279" s="6"/>
       <c r="N279" s="6" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="O279" s="6">
         <v>880</v>
@@ -20801,13 +20798,13 @@
         <v>5243</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C280" s="8">
         <v>351672996733151</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E280" s="8" t="s">
         <v>193</v>
@@ -20817,23 +20814,23 @@
         <v>649</v>
       </c>
       <c r="H280" s="8" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I280" s="8" t="s">
         <v>1669</v>
-      </c>
-      <c r="I280" s="8" t="s">
-        <v>1670</v>
       </c>
       <c r="J280" s="8" t="s">
         <v>1164</v>
       </c>
       <c r="K280" s="8" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="L280" s="8">
         <v>544882524</v>
       </c>
       <c r="M280" s="8"/>
       <c r="N280" s="8" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="O280" s="8">
         <v>880</v>
@@ -20852,39 +20849,39 @@
         <v>5244</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C281" s="6">
         <v>351672996727997</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E281" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F281" s="12"/>
       <c r="G281" s="12" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H281" s="6" t="s">
         <v>1137</v>
       </c>
       <c r="I281" s="6" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="J281" s="6" t="s">
         <v>419</v>
       </c>
       <c r="K281" s="6" t="s">
+        <v>1676</v>
+      </c>
+      <c r="L281" s="6" t="s">
         <v>1677</v>
-      </c>
-      <c r="L281" s="6" t="s">
-        <v>1678</v>
       </c>
       <c r="M281" s="6"/>
       <c r="N281" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="O281" s="6">
         <v>880</v>
@@ -20903,39 +20900,39 @@
         <v>5245</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C282" s="8">
         <v>351672996734860</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E282" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F282" s="8"/>
       <c r="G282" s="8" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H282" s="8" t="s">
         <v>1018</v>
       </c>
       <c r="I282" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="J282" s="8" t="s">
         <v>70</v>
       </c>
       <c r="K282" s="8" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L282" s="8" t="s">
         <v>1683</v>
-      </c>
-      <c r="L282" s="8" t="s">
-        <v>1684</v>
       </c>
       <c r="M282" s="8"/>
       <c r="N282" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="O282" s="8">
         <v>880</v>
@@ -20954,13 +20951,13 @@
         <v>5246</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C283" s="6">
         <v>351672996720786</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E283" s="6" t="s">
         <v>193</v>
@@ -20970,23 +20967,23 @@
         <v>45424</v>
       </c>
       <c r="H283" s="6" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I283" s="6" t="s">
         <v>1688</v>
-      </c>
-      <c r="I283" s="6" t="s">
-        <v>1689</v>
       </c>
       <c r="J283" s="6" t="s">
         <v>162</v>
       </c>
       <c r="K283" s="6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="L283" s="6" t="s">
         <v>1690</v>
-      </c>
-      <c r="L283" s="6" t="s">
-        <v>1691</v>
       </c>
       <c r="M283" s="6"/>
       <c r="N283" s="6" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="O283" s="6">
         <v>930</v>
@@ -20995,7 +20992,7 @@
         <v>28784684</v>
       </c>
       <c r="Q283" s="6" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="R283" s="6"/>
       <c r="S283" s="6">
@@ -21007,13 +21004,13 @@
         <v>5247</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C284" s="8">
         <v>351672996735131</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E284" s="8" t="s">
         <v>193</v>
@@ -21026,18 +21023,18 @@
         <v>11</v>
       </c>
       <c r="I284" s="8" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="J284" s="8" t="s">
         <v>70</v>
       </c>
       <c r="K284" s="8"/>
       <c r="L284" s="8" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="M284" s="8"/>
       <c r="N284" s="8" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="O284" s="8">
         <v>880</v>
@@ -21046,7 +21043,7 @@
         <v>206731028</v>
       </c>
       <c r="Q284" s="8" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="R284" s="8"/>
       <c r="S284" s="8"/>
@@ -21056,13 +21053,13 @@
         <v>5248</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C285" s="6">
         <v>351672996734324</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E285" s="6" t="s">
         <v>193</v>
@@ -21087,39 +21084,39 @@
         <v>5249</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C286" s="8">
         <v>351672996735925</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E286" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F286" s="8"/>
       <c r="G286" s="8" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H286" s="8" t="s">
         <v>862</v>
       </c>
       <c r="I286" s="8" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="J286" s="8" t="s">
         <v>1253</v>
       </c>
       <c r="K286" s="8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="L286" s="8">
         <v>583274293</v>
       </c>
       <c r="M286" s="8"/>
       <c r="N286" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="O286" s="8">
         <v>880</v>
@@ -21128,7 +21125,7 @@
         <v>207085358</v>
       </c>
       <c r="Q286" s="8" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="R286" s="8"/>
       <c r="S286" s="8"/>
@@ -21138,13 +21135,13 @@
         <v>5250</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C287" s="6">
         <v>351672996737038</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E287" s="6" t="s">
         <v>193</v>
@@ -21154,23 +21151,23 @@
         <v>627</v>
       </c>
       <c r="H287" s="6" t="s">
+        <v>1709</v>
+      </c>
+      <c r="I287" s="6" t="s">
         <v>1710</v>
-      </c>
-      <c r="I287" s="6" t="s">
-        <v>1711</v>
       </c>
       <c r="J287" s="6" t="s">
         <v>419</v>
       </c>
       <c r="K287" s="6" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="L287" s="6">
         <v>504118383</v>
       </c>
       <c r="M287" s="6"/>
       <c r="N287" s="6" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="O287" s="6">
         <v>880</v>
@@ -21189,39 +21186,39 @@
         <v>5251</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C288" s="8">
         <v>351672996737160</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E288" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F288" s="8"/>
       <c r="G288" s="8" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H288" s="8" t="s">
         <v>969</v>
       </c>
       <c r="I288" s="8" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="J288" s="8" t="s">
         <v>162</v>
       </c>
       <c r="K288" s="8" t="s">
+        <v>1717</v>
+      </c>
+      <c r="L288" s="8" t="s">
         <v>1718</v>
-      </c>
-      <c r="L288" s="8" t="s">
-        <v>1719</v>
       </c>
       <c r="M288" s="8"/>
       <c r="N288" s="8" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="O288" s="8">
         <v>880</v>
@@ -21240,13 +21237,13 @@
         <v>5252</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C289" s="6">
         <v>351672996736550</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E289" s="6" t="s">
         <v>193</v>
@@ -21271,13 +21268,13 @@
         <v>5253</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C290" s="8">
         <v>351672996732229</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E290" s="8" t="s">
         <v>193</v>
@@ -21302,39 +21299,39 @@
         <v>5254</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C291" s="6">
         <v>351672996737491</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E291" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F291" s="6"/>
       <c r="G291" s="6" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H291" s="6" t="s">
         <v>188</v>
       </c>
       <c r="I291" s="6" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="J291" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K291" s="6" t="s">
+        <v>1728</v>
+      </c>
+      <c r="L291" s="6" t="s">
         <v>1729</v>
-      </c>
-      <c r="L291" s="6" t="s">
-        <v>1730</v>
       </c>
       <c r="M291" s="22"/>
       <c r="N291" s="6" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="O291" s="6">
         <v>880</v>
@@ -21353,13 +21350,13 @@
         <v>5255</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C292" s="8">
         <v>351672996736519</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E292" s="8" t="s">
         <v>193</v>
@@ -21384,13 +21381,13 @@
         <v>5256</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C293" s="6">
         <v>351672996722733</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E293" s="6" t="s">
         <v>193</v>
@@ -21415,39 +21412,39 @@
         <v>5257</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C294" s="8">
         <v>351672996736535</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E294" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F294" s="8"/>
       <c r="G294" s="8" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H294" s="8" t="s">
         <v>323</v>
       </c>
       <c r="I294" s="8" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="J294" s="8" t="s">
         <v>703</v>
       </c>
       <c r="K294" s="8" t="s">
+        <v>1738</v>
+      </c>
+      <c r="L294" s="8" t="s">
         <v>1739</v>
-      </c>
-      <c r="L294" s="8" t="s">
-        <v>1740</v>
       </c>
       <c r="M294" s="8"/>
       <c r="N294" s="8" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="O294" s="8">
         <v>880</v>
@@ -21456,7 +21453,7 @@
         <v>318411055</v>
       </c>
       <c r="Q294" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="R294" s="8"/>
       <c r="S294" s="8"/>
@@ -21466,13 +21463,13 @@
         <v>5258</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C295" s="6">
         <v>351672996736576</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E295" s="6" t="s">
         <v>193</v>
@@ -21485,20 +21482,20 @@
         <v>339</v>
       </c>
       <c r="I295" s="6" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="J295" s="6" t="s">
         <v>887</v>
       </c>
       <c r="K295" s="6" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="L295" s="6">
         <v>527632782</v>
       </c>
       <c r="M295" s="6"/>
       <c r="N295" s="6" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="O295" s="6">
         <v>880</v>
@@ -21517,20 +21514,20 @@
         <v>5259</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C296" s="8">
         <v>351672996736659</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E296" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F296" s="8"/>
       <c r="G296" s="8" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H296" s="8" t="s">
         <v>305</v>
@@ -21542,14 +21539,14 @@
         <v>887</v>
       </c>
       <c r="K296" s="8" t="s">
+        <v>1749</v>
+      </c>
+      <c r="L296" s="35" t="s">
         <v>1750</v>
-      </c>
-      <c r="L296" s="35" t="s">
-        <v>1751</v>
       </c>
       <c r="M296" s="8"/>
       <c r="N296" s="8" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="O296" s="8">
         <v>880</v>
@@ -21558,7 +21555,7 @@
         <v>315321414</v>
       </c>
       <c r="Q296" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="R296" s="8"/>
       <c r="S296" s="8"/>
@@ -21568,20 +21565,20 @@
         <v>5260</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C297" s="6">
         <v>351672996736642</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E297" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F297" s="6"/>
       <c r="G297" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H297" s="6" t="s">
         <v>1218</v>
@@ -21593,14 +21590,14 @@
         <v>1164</v>
       </c>
       <c r="K297" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="L297" s="6">
         <v>524047177</v>
       </c>
       <c r="M297" s="6"/>
       <c r="N297" s="6" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="O297" s="6">
         <v>930</v>
@@ -21609,7 +21606,7 @@
         <v>37369824</v>
       </c>
       <c r="Q297" s="6" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="R297" s="6"/>
       <c r="S297" s="6"/>
@@ -21619,13 +21616,13 @@
         <v>5261</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C298" s="8">
         <v>351672996736634</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E298" s="8" t="s">
         <v>193</v>
@@ -21635,23 +21632,23 @@
         <v>159</v>
       </c>
       <c r="H298" s="8" t="s">
+        <v>1760</v>
+      </c>
+      <c r="I298" s="8" t="s">
         <v>1761</v>
-      </c>
-      <c r="I298" s="8" t="s">
-        <v>1762</v>
       </c>
       <c r="J298" s="8" t="s">
         <v>703</v>
       </c>
       <c r="K298" s="8" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="L298" s="8">
         <v>527168871</v>
       </c>
       <c r="M298" s="8"/>
       <c r="N298" s="8" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="O298" s="8">
         <v>920</v>
@@ -21660,7 +21657,7 @@
         <v>206169542</v>
       </c>
       <c r="Q298" s="8" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="R298" s="8"/>
       <c r="S298" s="8"/>
@@ -21670,46 +21667,46 @@
         <v>5262</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C299" s="6">
         <v>351672996722774</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E299" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F299" s="6"/>
       <c r="G299" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H299" s="6" t="s">
         <v>147</v>
       </c>
       <c r="I299" s="6" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="J299" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K299" s="6" t="s">
+        <v>1768</v>
+      </c>
+      <c r="L299" s="9" t="s">
         <v>1769</v>
-      </c>
-      <c r="L299" s="9" t="s">
-        <v>1770</v>
       </c>
       <c r="M299" s="6"/>
       <c r="N299" s="6" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="O299" s="6"/>
       <c r="P299" s="6">
         <v>200556165</v>
       </c>
       <c r="Q299" s="6" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R299" s="6"/>
       <c r="S299" s="6">
@@ -21721,39 +21718,39 @@
         <v>5263</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C300" s="8">
         <v>351672996737400</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E300" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F300" s="8"/>
       <c r="G300" s="8" t="s">
+        <v>1774</v>
+      </c>
+      <c r="H300" s="8" t="s">
         <v>1775</v>
       </c>
-      <c r="H300" s="8" t="s">
+      <c r="I300" s="8" t="s">
         <v>1776</v>
-      </c>
-      <c r="I300" s="8" t="s">
-        <v>1777</v>
       </c>
       <c r="J300" s="8" t="s">
         <v>1164</v>
       </c>
       <c r="K300" s="8" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="L300" s="8">
         <v>527638381</v>
       </c>
       <c r="M300" s="8"/>
       <c r="N300" s="8" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="O300" s="8">
         <v>880</v>
@@ -21772,39 +21769,39 @@
         <v>5264</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C301" s="6">
         <v>351672996737624</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E301" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F301" s="6"/>
       <c r="G301" s="6" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H301" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I301" s="6" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J301" s="6" t="s">
         <v>703</v>
       </c>
       <c r="K301" s="6" t="s">
+        <v>1782</v>
+      </c>
+      <c r="L301" s="6" t="s">
         <v>1783</v>
-      </c>
-      <c r="L301" s="6" t="s">
-        <v>1784</v>
       </c>
       <c r="M301" s="6"/>
       <c r="N301" s="6" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="O301" s="6">
         <v>880</v>
@@ -21823,13 +21820,13 @@
         <v>5265</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C302" s="8">
         <v>351672996737426</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E302" s="8" t="s">
         <v>193</v>
@@ -21839,23 +21836,23 @@
         <v>159</v>
       </c>
       <c r="H302" s="8" t="s">
+        <v>1787</v>
+      </c>
+      <c r="I302" s="8" t="s">
         <v>1788</v>
-      </c>
-      <c r="I302" s="8" t="s">
-        <v>1789</v>
       </c>
       <c r="J302" s="8" t="s">
         <v>703</v>
       </c>
       <c r="K302" s="8" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="L302" s="8">
         <v>527627790</v>
       </c>
       <c r="M302" s="8"/>
       <c r="N302" s="8" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="O302" s="8">
         <v>880</v>
@@ -21874,13 +21871,13 @@
         <v>5266</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C303" s="6">
         <v>351672996736527</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E303" s="6" t="s">
         <v>193</v>
@@ -21893,20 +21890,20 @@
         <v>259</v>
       </c>
       <c r="I303" s="6" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="J303" s="6" t="s">
         <v>703</v>
       </c>
       <c r="K303" s="6" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="L303" s="6">
         <v>527137314</v>
       </c>
       <c r="M303" s="6"/>
       <c r="N303" s="6" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="O303" s="6">
         <v>880</v>
@@ -21915,7 +21912,7 @@
         <v>206995508</v>
       </c>
       <c r="Q303" s="6" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="R303" s="6"/>
       <c r="S303" s="6"/>
@@ -21925,13 +21922,13 @@
         <v>5267</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C304" s="8">
         <v>351672996736212</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E304" s="8" t="s">
         <v>193</v>
@@ -21950,14 +21947,14 @@
         <v>419</v>
       </c>
       <c r="K304" s="8" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="L304" s="8">
         <v>556723476</v>
       </c>
       <c r="M304" s="8"/>
       <c r="N304" s="8" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="O304" s="8">
         <v>880</v>
@@ -21976,13 +21973,13 @@
         <v>5268</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C305" s="6">
         <v>351672996736667</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="E305" s="6" t="s">
         <v>193</v>
@@ -22007,13 +22004,13 @@
         <v>5269</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C306" s="8">
         <v>351672996736220</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E306" s="8" t="s">
         <v>193</v>
@@ -22023,30 +22020,30 @@
         <v>1335</v>
       </c>
       <c r="H306" s="8" t="s">
+        <v>1804</v>
+      </c>
+      <c r="I306" s="8" t="s">
         <v>1805</v>
       </c>
-      <c r="I306" s="8" t="s">
+      <c r="J306" s="8" t="s">
         <v>1806</v>
       </c>
-      <c r="J306" s="8" t="s">
+      <c r="K306" s="12" t="s">
         <v>1807</v>
       </c>
-      <c r="K306" s="12" t="s">
+      <c r="L306" s="8" t="s">
         <v>1808</v>
-      </c>
-      <c r="L306" s="8" t="s">
-        <v>1809</v>
       </c>
       <c r="M306" s="8"/>
       <c r="N306" s="8" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="O306" s="8">
         <v>880</v>
       </c>
       <c r="P306" s="8"/>
       <c r="Q306" s="8" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="R306" s="8"/>
       <c r="S306" s="8"/>
@@ -22056,13 +22053,13 @@
         <v>5270</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C307" s="6">
         <v>351672996736386</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E307" s="6" t="s">
         <v>193</v>
@@ -22087,39 +22084,39 @@
         <v>5271</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C308" s="8">
         <v>351672996737913</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E308" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F308" s="8"/>
       <c r="G308" s="8" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H308" s="8" t="s">
         <v>188</v>
       </c>
       <c r="I308" s="8" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="J308" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K308" s="8" t="s">
+        <v>1816</v>
+      </c>
+      <c r="L308" s="8" t="s">
         <v>1817</v>
-      </c>
-      <c r="L308" s="8" t="s">
-        <v>1818</v>
       </c>
       <c r="M308" s="8"/>
       <c r="N308" s="8" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="O308" s="8">
         <v>930</v>
@@ -22128,7 +22125,7 @@
         <v>315916841</v>
       </c>
       <c r="Q308" s="8" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="R308" s="8"/>
       <c r="S308" s="8">
@@ -22140,39 +22137,39 @@
         <v>5272</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C309" s="6">
         <v>351672999390306</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E309" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F309" s="6"/>
       <c r="G309" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H309" s="6" t="s">
         <v>346</v>
       </c>
       <c r="I309" s="6" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="J309" s="6" t="s">
         <v>520</v>
       </c>
       <c r="K309" s="6" t="s">
+        <v>1823</v>
+      </c>
+      <c r="L309" s="6" t="s">
         <v>1824</v>
-      </c>
-      <c r="L309" s="6" t="s">
-        <v>1825</v>
       </c>
       <c r="M309" s="6"/>
       <c r="N309" s="6" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="O309" s="6">
         <v>880</v>
@@ -22181,7 +22178,7 @@
         <v>308493030</v>
       </c>
       <c r="Q309" s="6" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="R309" s="6"/>
       <c r="S309" s="6"/>
@@ -22191,13 +22188,13 @@
         <v>5273</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C310" s="8">
         <v>351672995255321</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E310" s="8" t="s">
         <v>193</v>
@@ -22207,16 +22204,16 @@
         <v>45637</v>
       </c>
       <c r="H310" s="8" t="s">
+        <v>1829</v>
+      </c>
+      <c r="I310" s="8" t="s">
         <v>1830</v>
-      </c>
-      <c r="I310" s="8" t="s">
-        <v>1831</v>
       </c>
       <c r="J310" s="8" t="s">
         <v>261</v>
       </c>
       <c r="K310" s="8" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="L310" s="8">
         <v>504167248</v>
@@ -22225,7 +22222,7 @@
         <v>58326408</v>
       </c>
       <c r="N310" s="8" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="O310" s="8">
         <v>880</v>
@@ -22234,7 +22231,7 @@
         <v>211650569</v>
       </c>
       <c r="Q310" s="30" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="R310" s="8"/>
       <c r="S310" s="8">
@@ -22246,13 +22243,13 @@
         <v>5274</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C311" s="6">
         <v>351672995255784</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E311" s="6" t="s">
         <v>193</v>
@@ -22277,39 +22274,39 @@
         <v>5275</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C312" s="8">
         <v>351672999411037</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="E312" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F312" s="8"/>
       <c r="G312" s="8" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H312" s="8" t="s">
         <v>1839</v>
       </c>
-      <c r="H312" s="8" t="s">
+      <c r="I312" s="8" t="s">
         <v>1840</v>
-      </c>
-      <c r="I312" s="8" t="s">
-        <v>1841</v>
       </c>
       <c r="J312" s="8" t="s">
         <v>162</v>
       </c>
       <c r="K312" s="8" t="s">
+        <v>1841</v>
+      </c>
+      <c r="L312" s="8" t="s">
         <v>1842</v>
-      </c>
-      <c r="L312" s="8" t="s">
-        <v>1843</v>
       </c>
       <c r="M312" s="8"/>
       <c r="N312" s="8" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="O312" s="8">
         <v>880</v>
@@ -22318,7 +22315,7 @@
         <v>204467435</v>
       </c>
       <c r="Q312" s="8" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="R312" s="8"/>
       <c r="S312" s="8"/>
@@ -22328,13 +22325,13 @@
         <v>5276</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C313" s="6">
         <v>351672996737756</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E313" s="6" t="s">
         <v>193</v>
@@ -22347,22 +22344,22 @@
         <v>821</v>
       </c>
       <c r="I313" s="6" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="J313" s="6" t="s">
         <v>162</v>
       </c>
       <c r="K313" s="6" t="s">
+        <v>1848</v>
+      </c>
+      <c r="L313" s="6" t="s">
         <v>1849</v>
       </c>
-      <c r="L313" s="6" t="s">
+      <c r="M313" s="6" t="s">
         <v>1850</v>
       </c>
-      <c r="M313" s="6" t="s">
+      <c r="N313" s="6" t="s">
         <v>1851</v>
-      </c>
-      <c r="N313" s="6" t="s">
-        <v>1852</v>
       </c>
       <c r="O313" s="6">
         <v>880</v>
@@ -22381,39 +22378,39 @@
         <v>5277</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C314" s="8">
         <v>351672996732278</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="E314" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F314" s="8"/>
       <c r="G314" s="8" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="H314" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I314" s="8" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="J314" s="8" t="s">
         <v>261</v>
       </c>
       <c r="K314" s="8" t="s">
+        <v>1856</v>
+      </c>
+      <c r="L314" s="8" t="s">
         <v>1857</v>
-      </c>
-      <c r="L314" s="8" t="s">
-        <v>1858</v>
       </c>
       <c r="M314" s="8"/>
       <c r="N314" s="8" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="O314" s="8">
         <v>880</v>
@@ -22422,7 +22419,7 @@
         <v>318325842</v>
       </c>
       <c r="Q314" s="8" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="R314" s="8"/>
       <c r="S314" s="8"/>
@@ -22432,39 +22429,39 @@
         <v>5278</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C315" s="6">
         <v>351672996738333</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E315" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F315" s="6"/>
       <c r="G315" s="6" t="s">
+        <v>1862</v>
+      </c>
+      <c r="H315" s="6" t="s">
         <v>1863</v>
       </c>
-      <c r="H315" s="6" t="s">
+      <c r="I315" s="6" t="s">
         <v>1864</v>
-      </c>
-      <c r="I315" s="6" t="s">
-        <v>1865</v>
       </c>
       <c r="J315" s="6" t="s">
         <v>261</v>
       </c>
       <c r="K315" s="6" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="L315" s="6">
         <v>527647333</v>
       </c>
       <c r="M315" s="6"/>
       <c r="N315" s="6" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="O315" s="6">
         <v>880</v>
@@ -22483,35 +22480,35 @@
         <v>5279</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C316" s="8">
         <v>351672995255800</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="E316" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F316" s="8"/>
       <c r="G316" s="8" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H316" s="8" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I316" s="8" t="s">
         <v>1870</v>
-      </c>
-      <c r="I316" s="8" t="s">
-        <v>1871</v>
       </c>
       <c r="J316" s="8" t="s">
         <v>162</v>
       </c>
       <c r="K316" s="8" t="s">
+        <v>1871</v>
+      </c>
+      <c r="L316" s="8" t="s">
         <v>1872</v>
-      </c>
-      <c r="L316" s="8" t="s">
-        <v>1873</v>
       </c>
       <c r="M316" s="8"/>
       <c r="N316" s="8" t="s">
@@ -22534,13 +22531,13 @@
         <v>5280</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C317" s="6">
         <v>351672999409577</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E317" s="6" t="s">
         <v>193</v>
@@ -22556,7 +22553,7 @@
       </c>
       <c r="M317" s="6"/>
       <c r="N317" s="6" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="O317" s="6">
         <v>880</v>
@@ -22575,13 +22572,13 @@
         <v>5281</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C318" s="8">
         <v>351672996732591</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E318" s="8" t="s">
         <v>193</v>
@@ -22600,14 +22597,14 @@
         <v>261</v>
       </c>
       <c r="K318" s="8" t="s">
+        <v>1878</v>
+      </c>
+      <c r="L318" s="8" t="s">
         <v>1879</v>
-      </c>
-      <c r="L318" s="8" t="s">
-        <v>1880</v>
       </c>
       <c r="M318" s="8"/>
       <c r="N318" s="8" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="O318" s="8">
         <v>880</v>
@@ -22626,13 +22623,13 @@
         <v>5282</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C319" s="6">
         <v>351672996738051</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E319" s="6" t="s">
         <v>193</v>
@@ -22657,23 +22654,23 @@
         <v>5283</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C320" s="8">
         <v>351672996732419</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E320" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F320" s="8"/>
       <c r="G320" s="8" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H320" s="8" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="I320" s="8" t="s">
         <v>374</v>
@@ -22682,7 +22679,7 @@
         <v>261</v>
       </c>
       <c r="K320" s="8" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="L320" s="8"/>
       <c r="M320" s="8"/>
@@ -22698,13 +22695,13 @@
         <v>5284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C321" s="6">
         <v>351672996738366</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E321" s="6" t="s">
         <v>193</v>
@@ -22720,7 +22717,7 @@
       </c>
       <c r="M321" s="6"/>
       <c r="N321" s="6" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="O321" s="6">
         <v>930</v>
@@ -22729,7 +22726,7 @@
         <v>211527445</v>
       </c>
       <c r="Q321" s="6" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="R321" s="6"/>
       <c r="S321" s="6">
@@ -22741,13 +22738,13 @@
         <v>5285</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C322" s="8">
         <v>351672999402671</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="E322" s="8" t="s">
         <v>193</v>
@@ -22760,20 +22757,20 @@
         <v>701</v>
       </c>
       <c r="I322" s="8" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="J322" s="8" t="s">
         <v>261</v>
       </c>
       <c r="K322" s="8" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="L322" s="8">
         <v>527651018</v>
       </c>
       <c r="M322" s="8"/>
       <c r="N322" s="8" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="O322" s="8">
         <v>880</v>
@@ -22782,7 +22779,7 @@
         <v>21779491</v>
       </c>
       <c r="Q322" s="8" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="R322" s="8"/>
       <c r="S322" s="8"/>
@@ -22792,13 +22789,13 @@
         <v>5286</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C323" s="6">
         <v>351672995168458</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="E323" s="6" t="s">
         <v>193</v>
@@ -22823,23 +22820,23 @@
         <v>5287</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C324" s="8">
         <v>351672995164531</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E324" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F324" s="8"/>
       <c r="G324" s="8" t="s">
+        <v>1901</v>
+      </c>
+      <c r="H324" s="8" t="s">
         <v>1902</v>
-      </c>
-      <c r="H324" s="8" t="s">
-        <v>1903</v>
       </c>
       <c r="I324" s="8" t="s">
         <v>1137</v>
@@ -22848,7 +22845,7 @@
         <v>261</v>
       </c>
       <c r="K324" s="8" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="L324" s="8"/>
       <c r="M324" s="8"/>
@@ -22864,13 +22861,13 @@
         <v>5288</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C325" s="6">
         <v>351672995171163</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="E325" s="6" t="s">
         <v>193</v>
@@ -22895,13 +22892,13 @@
         <v>5289</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C326" s="8">
         <v>351672995171130</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="E326" s="8" t="s">
         <v>193</v>
@@ -22914,20 +22911,20 @@
         <v>22</v>
       </c>
       <c r="I326" s="8" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="J326" s="8" t="s">
         <v>1045</v>
       </c>
       <c r="K326" s="8" t="s">
+        <v>1909</v>
+      </c>
+      <c r="L326" s="8" t="s">
         <v>1910</v>
-      </c>
-      <c r="L326" s="8" t="s">
-        <v>1911</v>
       </c>
       <c r="M326" s="8"/>
       <c r="N326" s="8" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O326" s="8">
         <v>880</v>
@@ -22946,13 +22943,13 @@
         <v>5290</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C327" s="6">
         <v>351672995171106</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="E327" s="6" t="s">
         <v>193</v>
@@ -22965,20 +22962,20 @@
         <v>259</v>
       </c>
       <c r="I327" s="6" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="J327" s="6" t="s">
         <v>261</v>
       </c>
       <c r="K327" s="6" t="s">
+        <v>1915</v>
+      </c>
+      <c r="L327" s="6" t="s">
         <v>1916</v>
-      </c>
-      <c r="L327" s="6" t="s">
-        <v>1917</v>
       </c>
       <c r="M327" s="6"/>
       <c r="N327" s="6" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="O327" s="6">
         <v>880</v>
@@ -22997,38 +22994,38 @@
         <v>5291</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="C328" s="8">
         <v>351672995170710</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E328" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F328" s="8"/>
       <c r="G328" s="8" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H328" s="8" t="s">
         <v>821</v>
       </c>
       <c r="I328" s="8" t="s">
+        <v>1920</v>
+      </c>
+      <c r="J328" s="8" t="s">
         <v>1921</v>
       </c>
-      <c r="J328" s="8" t="s">
+      <c r="K328" s="8" t="s">
+        <v>1921</v>
+      </c>
+      <c r="L328" s="8" t="s">
         <v>1922</v>
       </c>
-      <c r="K328" s="8" t="s">
-        <v>1922</v>
-      </c>
-      <c r="L328" s="8" t="s">
-        <v>1923</v>
-      </c>
       <c r="M328" s="8" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="N328" s="8" t="s">
         <v>1158</v>
@@ -23050,13 +23047,13 @@
         <v>5292</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C329" s="6">
         <v>351672995170843</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E329" s="6" t="s">
         <v>193</v>
@@ -23066,23 +23063,23 @@
         <v>45608</v>
       </c>
       <c r="H329" s="6" t="s">
+        <v>1925</v>
+      </c>
+      <c r="I329" s="6" t="s">
         <v>1926</v>
-      </c>
-      <c r="I329" s="6" t="s">
-        <v>1927</v>
       </c>
       <c r="J329" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K329" s="6" t="s">
+        <v>1927</v>
+      </c>
+      <c r="L329" s="6" t="s">
         <v>1928</v>
-      </c>
-      <c r="L329" s="6" t="s">
-        <v>1929</v>
       </c>
       <c r="M329" s="6"/>
       <c r="N329" s="6" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="O329" s="6">
         <v>880</v>
@@ -23101,20 +23098,20 @@
         <v>5293</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C330" s="8">
         <v>351672995164473</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E330" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F330" s="8"/>
       <c r="G330" s="8" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H330" s="8" t="s">
         <v>32</v>
@@ -23126,14 +23123,14 @@
         <v>162</v>
       </c>
       <c r="K330" s="8" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="L330" s="8">
         <v>527173829</v>
       </c>
       <c r="M330" s="24"/>
       <c r="N330" s="8" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="O330" s="8">
         <v>880</v>
@@ -23152,37 +23149,37 @@
         <v>5294</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C331" s="6">
         <v>351672995173284</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E331" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F331" s="6"/>
       <c r="G331" s="6" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="H331" s="6"/>
       <c r="I331" s="6" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="J331" s="6" t="s">
         <v>162</v>
       </c>
       <c r="K331" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="L331" s="6" t="s">
         <v>1939</v>
-      </c>
-      <c r="L331" s="6" t="s">
-        <v>1940</v>
       </c>
       <c r="M331" s="6"/>
       <c r="N331" s="6" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="O331" s="6">
         <v>930</v>
@@ -23191,7 +23188,7 @@
         <v>207346420</v>
       </c>
       <c r="Q331" s="6" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="R331" s="6"/>
       <c r="S331" s="6">
@@ -23203,13 +23200,13 @@
         <v>5295</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C332" s="8">
         <v>351672996429552</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="E332" s="8" t="s">
         <v>193</v>
@@ -23234,13 +23231,13 @@
         <v>5296</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C333" s="6">
         <v>351672996429933</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E333" s="6" t="s">
         <v>193</v>
@@ -23265,39 +23262,39 @@
         <v>5297</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C334" s="8">
         <v>351672996430162</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E334" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F334" s="8"/>
       <c r="G334" s="8" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="H334" s="8" t="s">
         <v>259</v>
       </c>
       <c r="I334" s="8" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="J334" s="8" t="s">
         <v>261</v>
       </c>
       <c r="K334" s="8" t="s">
+        <v>1948</v>
+      </c>
+      <c r="L334" s="8" t="s">
         <v>1949</v>
-      </c>
-      <c r="L334" s="8" t="s">
-        <v>1950</v>
       </c>
       <c r="M334" s="8"/>
       <c r="N334" s="8" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="O334" s="8">
         <v>880</v>
@@ -23316,13 +23313,13 @@
         <v>5298</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C335" s="6">
         <v>351672996420445</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E335" s="6" t="s">
         <v>193</v>
@@ -23347,13 +23344,13 @@
         <v>5299</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C336" s="8">
         <v>351672996417052</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E336" s="8" t="s">
         <v>193</v>
@@ -23363,23 +23360,23 @@
         <v>45424</v>
       </c>
       <c r="H336" s="8" t="s">
+        <v>1955</v>
+      </c>
+      <c r="I336" s="8" t="s">
         <v>1956</v>
-      </c>
-      <c r="I336" s="8" t="s">
-        <v>1957</v>
       </c>
       <c r="J336" s="8" t="s">
         <v>162</v>
       </c>
       <c r="K336" s="8" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="L336" s="8">
         <v>583278017</v>
       </c>
       <c r="M336" s="8"/>
       <c r="N336" s="8" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="O336" s="8">
         <v>880</v>
@@ -23398,20 +23395,20 @@
         <v>5300</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C337" s="6">
         <v>351672996421435</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E337" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F337" s="6"/>
       <c r="G337" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H337" s="6" t="s">
         <v>259</v>
@@ -23423,14 +23420,14 @@
         <v>162</v>
       </c>
       <c r="K337" s="6" t="s">
+        <v>1961</v>
+      </c>
+      <c r="L337" s="6" t="s">
         <v>1962</v>
-      </c>
-      <c r="L337" s="6" t="s">
-        <v>1963</v>
       </c>
       <c r="M337" s="6"/>
       <c r="N337" s="6" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="O337" s="6">
         <v>930</v>
@@ -23451,39 +23448,39 @@
         <v>5301</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C338" s="8">
         <v>351672996430196</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E338" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F338" s="8"/>
       <c r="G338" s="8" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="H338" s="8" t="s">
         <v>650</v>
       </c>
       <c r="I338" s="8" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="J338" s="8" t="s">
         <v>261</v>
       </c>
       <c r="K338" s="8" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="L338" s="8">
         <v>527610417</v>
       </c>
       <c r="M338" s="8"/>
       <c r="N338" s="8" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="O338" s="8">
         <v>880</v>
@@ -23502,38 +23499,38 @@
         <v>5302</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C339" s="6">
         <v>351672996420429</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="E339" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F339" s="6"/>
       <c r="G339" s="6" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H339" s="6" t="s">
         <v>1236</v>
       </c>
       <c r="I339" s="6" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="J339" s="6" t="s">
         <v>520</v>
       </c>
       <c r="K339" s="6" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L339" s="6" t="s">
         <v>1973</v>
       </c>
-      <c r="L339" s="6" t="s">
+      <c r="M339" s="9" t="s">
         <v>1974</v>
-      </c>
-      <c r="M339" s="9" t="s">
-        <v>1975</v>
       </c>
       <c r="N339" s="6"/>
       <c r="O339" s="6">
@@ -23553,13 +23550,13 @@
         <v>5303</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C340" s="8">
         <v>351672996415890</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E340" s="8" t="s">
         <v>193</v>
@@ -23584,39 +23581,39 @@
         <v>5304</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C341" s="6">
         <v>351672995164713</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E341" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F341" s="6"/>
       <c r="G341" s="6" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="H341" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="I341" s="6" t="s">
         <v>1980</v>
-      </c>
-      <c r="I341" s="6" t="s">
-        <v>1981</v>
       </c>
       <c r="J341" s="6" t="s">
         <v>162</v>
       </c>
       <c r="K341" s="6" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="L341" s="6">
         <v>548414320</v>
       </c>
       <c r="M341" s="6"/>
       <c r="N341" s="6" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="O341" s="6">
         <v>930</v>
@@ -23625,7 +23622,7 @@
         <v>33797744</v>
       </c>
       <c r="Q341" s="6" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="R341" s="6"/>
       <c r="S341" s="6">
@@ -23637,39 +23634,39 @@
         <v>5305</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C342" s="8">
         <v>351672995941102</v>
       </c>
       <c r="D342" s="8" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E342" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F342" s="8"/>
       <c r="G342" s="8" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H342" s="8" t="s">
         <v>1986</v>
       </c>
-      <c r="H342" s="8" t="s">
+      <c r="I342" s="8" t="s">
         <v>1987</v>
-      </c>
-      <c r="I342" s="8" t="s">
-        <v>1988</v>
       </c>
       <c r="J342" s="8" t="s">
         <v>1164</v>
       </c>
       <c r="K342" s="8" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="L342" s="8">
         <v>527673130</v>
       </c>
       <c r="M342" s="8"/>
       <c r="N342" s="8" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="O342" s="8">
         <v>880</v>
@@ -23688,13 +23685,13 @@
         <v>5306</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C343" s="6">
         <v>351672995940260</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E343" s="6" t="s">
         <v>193</v>
@@ -23704,7 +23701,7 @@
         <v>45303</v>
       </c>
       <c r="H343" s="6" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I343" s="6" t="s">
         <v>1219</v>
@@ -23713,14 +23710,14 @@
         <v>468</v>
       </c>
       <c r="K343" s="6" t="s">
+        <v>1993</v>
+      </c>
+      <c r="L343" s="6" t="s">
         <v>1994</v>
-      </c>
-      <c r="L343" s="6" t="s">
-        <v>1995</v>
       </c>
       <c r="M343" s="6"/>
       <c r="N343" s="6" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="O343" s="6">
         <v>880</v>
@@ -23739,13 +23736,13 @@
         <v>5307</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C344" s="8">
         <v>351672995940781</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E344" s="8" t="s">
         <v>193</v>
@@ -23755,7 +23752,7 @@
         <v>45423</v>
       </c>
       <c r="H344" s="8" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I344" s="8" t="s">
         <v>122</v>
@@ -23764,14 +23761,14 @@
         <v>468</v>
       </c>
       <c r="K344" s="8" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="L344" s="8">
         <v>533461232</v>
       </c>
       <c r="M344" s="8"/>
       <c r="N344" s="8" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="O344" s="8">
         <v>930</v>
@@ -23780,7 +23777,7 @@
         <v>325399756</v>
       </c>
       <c r="Q344" s="8" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="R344" s="8"/>
       <c r="S344" s="8">
@@ -23792,13 +23789,13 @@
         <v>5308</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C345" s="6">
         <v>351672995941136</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E345" s="6" t="s">
         <v>193</v>
@@ -23817,14 +23814,14 @@
         <v>468</v>
       </c>
       <c r="K345" s="6" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="L345" s="6">
         <v>504102693</v>
       </c>
       <c r="M345" s="6"/>
       <c r="N345" s="6" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O345" s="6">
         <v>880</v>
@@ -23843,13 +23840,13 @@
         <v>5309</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C346" s="8">
         <v>351672995939858</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E346" s="8" t="s">
         <v>193</v>
@@ -23862,27 +23859,27 @@
         <v>821</v>
       </c>
       <c r="I346" s="8" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="J346" s="8" t="s">
         <v>1164</v>
       </c>
       <c r="K346" s="8" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L346" s="8">
         <v>504104952</v>
       </c>
       <c r="M346" s="8"/>
       <c r="N346" s="8" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="O346" s="8">
         <v>930</v>
       </c>
       <c r="P346" s="8"/>
       <c r="Q346" s="8" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="R346" s="8"/>
       <c r="S346" s="8">
@@ -23894,41 +23891,41 @@
         <v>5310</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C347" s="6">
         <v>351672995896942</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E347" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F347" s="6"/>
       <c r="G347" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H347" s="6" t="s">
+        <v>2014</v>
+      </c>
+      <c r="I347" s="6" t="s">
         <v>2015</v>
-      </c>
-      <c r="I347" s="6" t="s">
-        <v>2016</v>
       </c>
       <c r="J347" s="6" t="s">
         <v>703</v>
       </c>
       <c r="K347" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="L347" s="6" t="s">
         <v>2017</v>
-      </c>
-      <c r="L347" s="6" t="s">
-        <v>2018</v>
       </c>
       <c r="M347" s="6">
         <v>83732012</v>
       </c>
       <c r="N347" s="6" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="O347" s="6">
         <v>880</v>
@@ -23937,7 +23934,7 @@
         <v>513793331</v>
       </c>
       <c r="Q347" s="6" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="R347" s="6"/>
       <c r="S347" s="6"/>
@@ -23947,41 +23944,41 @@
         <v>5311</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C348" s="8">
         <v>351672995941078</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E348" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F348" s="8"/>
       <c r="G348" s="8" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H348" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="I348" s="8" t="s">
         <v>2015</v>
-      </c>
-      <c r="I348" s="8" t="s">
-        <v>2016</v>
       </c>
       <c r="J348" s="8" t="s">
         <v>703</v>
       </c>
       <c r="K348" s="8" t="s">
+        <v>2016</v>
+      </c>
+      <c r="L348" s="8" t="s">
         <v>2017</v>
-      </c>
-      <c r="L348" s="8" t="s">
-        <v>2018</v>
       </c>
       <c r="M348" s="8">
         <v>83732012</v>
       </c>
       <c r="N348" s="8" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="O348" s="8">
         <v>880</v>
@@ -23990,7 +23987,7 @@
         <v>513793331</v>
       </c>
       <c r="Q348" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="R348" s="8"/>
       <c r="S348" s="8"/>
@@ -24000,41 +23997,41 @@
         <v>5312</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C349" s="6">
         <v>351672995940815</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E349" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F349" s="6"/>
       <c r="G349" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H349" s="6" t="s">
+        <v>2014</v>
+      </c>
+      <c r="I349" s="6" t="s">
         <v>2015</v>
-      </c>
-      <c r="I349" s="6" t="s">
-        <v>2016</v>
       </c>
       <c r="J349" s="6" t="s">
         <v>703</v>
       </c>
       <c r="K349" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="L349" s="6" t="s">
         <v>2017</v>
-      </c>
-      <c r="L349" s="6" t="s">
-        <v>2018</v>
       </c>
       <c r="M349" s="6">
         <v>83732012</v>
       </c>
       <c r="N349" s="6" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="O349" s="6">
         <v>880</v>
@@ -24043,7 +24040,7 @@
         <v>513793331</v>
       </c>
       <c r="Q349" s="6" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="R349" s="6"/>
       <c r="S349" s="6"/>
@@ -24053,13 +24050,13 @@
         <v>5313</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C350" s="8">
         <v>351672995942407</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E350" s="8" t="s">
         <v>193</v>
@@ -24084,41 +24081,41 @@
         <v>5314</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C351" s="6">
         <v>351672995936599</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E351" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F351" s="6"/>
       <c r="G351" s="6" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="H351" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I351" s="6" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="J351" s="6" t="s">
         <v>162</v>
       </c>
       <c r="K351" s="6" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="L351" s="6">
         <v>527637177</v>
       </c>
       <c r="M351" s="6" t="s">
+        <v>2030</v>
+      </c>
+      <c r="N351" s="6" t="s">
         <v>2031</v>
-      </c>
-      <c r="N351" s="6" t="s">
-        <v>2032</v>
       </c>
       <c r="O351" s="6">
         <v>930</v>
@@ -24139,13 +24136,13 @@
         <v>5315</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C352" s="8">
         <v>351672995940476</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E352" s="8" t="s">
         <v>193</v>
@@ -24170,13 +24167,13 @@
         <v>5316</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C353" s="6">
         <v>351672995940963</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="E353" s="6" t="s">
         <v>193</v>
@@ -24189,7 +24186,7 @@
       <c r="K353" s="6"/>
       <c r="L353" s="6"/>
       <c r="M353" s="6" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="N353" s="6"/>
       <c r="O353" s="6"/>
@@ -24203,13 +24200,13 @@
         <v>5317</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C354" s="8">
         <v>351672995935575</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="E354" s="8" t="s">
         <v>193</v>
@@ -24222,20 +24219,20 @@
         <v>22</v>
       </c>
       <c r="I354" s="8" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="J354" s="8" t="s">
         <v>162</v>
       </c>
       <c r="K354" s="8" t="s">
+        <v>2040</v>
+      </c>
+      <c r="L354" s="11" t="s">
         <v>2041</v>
-      </c>
-      <c r="L354" s="11" t="s">
-        <v>2042</v>
       </c>
       <c r="M354" s="8"/>
       <c r="N354" s="8" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="O354" s="8">
         <v>1030</v>
@@ -24244,7 +24241,7 @@
         <v>308537612</v>
       </c>
       <c r="Q354" s="8" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="R354" s="8"/>
       <c r="S354" s="8"/>
@@ -24254,13 +24251,13 @@
         <v>5318</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C355" s="6">
         <v>351672995940674</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="E355" s="6" t="s">
         <v>193</v>
@@ -24273,20 +24270,20 @@
         <v>115</v>
       </c>
       <c r="I355" s="6" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="J355" s="6" t="s">
         <v>162</v>
       </c>
       <c r="K355" s="6" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="L355" s="6">
         <v>527634771</v>
       </c>
       <c r="M355" s="6"/>
       <c r="N355" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="O355" s="6">
         <v>880</v>
@@ -24305,39 +24302,39 @@
         <v>5319</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C356" s="8">
         <v>351672995872323</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E356" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F356" s="8"/>
       <c r="G356" s="8" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H356" s="8" t="s">
         <v>2052</v>
       </c>
-      <c r="H356" s="8" t="s">
+      <c r="I356" s="8" t="s">
         <v>2053</v>
-      </c>
-      <c r="I356" s="8" t="s">
-        <v>2054</v>
       </c>
       <c r="J356" s="8" t="s">
         <v>282</v>
       </c>
       <c r="K356" s="8" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="L356" s="8">
         <v>527636245</v>
       </c>
       <c r="M356" s="8"/>
       <c r="N356" s="8" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="O356" s="8">
         <v>930</v>
@@ -24346,7 +24343,7 @@
         <v>304750821</v>
       </c>
       <c r="Q356" s="8" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="R356" s="8"/>
       <c r="S356" s="8">
@@ -24358,13 +24355,13 @@
         <v>5320</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C357" s="6">
         <v>351672995941128</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E357" s="6" t="s">
         <v>193</v>
@@ -24389,39 +24386,39 @@
         <v>5321</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C358" s="8">
         <v>351672995941383</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="E358" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F358" s="8"/>
       <c r="G358" s="8" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H358" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="I358" s="8" t="s">
         <v>2015</v>
-      </c>
-      <c r="I358" s="8" t="s">
-        <v>2016</v>
       </c>
       <c r="J358" s="8" t="s">
         <v>703</v>
       </c>
       <c r="K358" s="8"/>
       <c r="L358" s="8" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="M358" s="8">
         <v>83732012</v>
       </c>
       <c r="N358" s="8" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="O358" s="8">
         <v>880</v>
@@ -24430,7 +24427,7 @@
         <v>513793331</v>
       </c>
       <c r="Q358" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="R358" s="8"/>
       <c r="S358" s="8"/>
@@ -24440,13 +24437,13 @@
         <v>5322</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C359" s="6">
         <v>351672995934487</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="E359" s="6" t="s">
         <v>193</v>
@@ -24471,32 +24468,32 @@
         <v>5323</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C360" s="8">
         <v>351672995941334</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E360" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F360" s="8"/>
       <c r="G360" s="8" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="H360" s="8" t="s">
         <v>271</v>
       </c>
       <c r="I360" s="8" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="J360" s="8" t="s">
         <v>13</v>
       </c>
       <c r="K360" s="8" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="L360" s="8">
         <v>504172937</v>
@@ -24510,7 +24507,7 @@
         <v>325301307</v>
       </c>
       <c r="Q360" s="8" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="R360" s="8"/>
       <c r="S360" s="8"/>
@@ -24520,41 +24517,41 @@
         <v>5324</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C361" s="6">
         <v>351672995941227</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="E361" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F361" s="6"/>
       <c r="G361" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H361" s="6" t="s">
+        <v>2014</v>
+      </c>
+      <c r="I361" s="6" t="s">
         <v>2015</v>
-      </c>
-      <c r="I361" s="6" t="s">
-        <v>2016</v>
       </c>
       <c r="J361" s="6" t="s">
         <v>703</v>
       </c>
       <c r="K361" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="L361" s="6" t="s">
         <v>2017</v>
-      </c>
-      <c r="L361" s="6" t="s">
-        <v>2018</v>
       </c>
       <c r="M361" s="6">
         <v>83732012</v>
       </c>
       <c r="N361" s="6" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="O361" s="6">
         <v>880</v>
@@ -24563,7 +24560,7 @@
         <v>513793331</v>
       </c>
       <c r="Q361" s="6" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="R361" s="6"/>
       <c r="S361" s="6"/>
@@ -24573,13 +24570,13 @@
         <v>5325</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C362" s="8">
         <v>350585280153186</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="E362" s="8" t="s">
         <v>193</v>
@@ -24604,13 +24601,13 @@
         <v>5326</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C363" s="6">
         <v>350585280158565</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="E363" s="6" t="s">
         <v>193</v>
@@ -24635,13 +24632,13 @@
         <v>5327</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C364" s="8">
         <v>350585280158557</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E364" s="8" t="s">
         <v>193</v>
@@ -24666,13 +24663,13 @@
         <v>5328</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C365" s="6">
         <v>350585280151693</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E365" s="6" t="s">
         <v>193</v>
@@ -24697,13 +24694,13 @@
         <v>5329</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C366" s="8">
         <v>350585280153806</v>
       </c>
       <c r="D366" s="8" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E366" s="8" t="s">
         <v>193</v>
@@ -24728,13 +24725,13 @@
         <v>5330</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="C367" s="6">
         <v>350585280153392</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="E367" s="6" t="s">
         <v>193</v>
@@ -24759,13 +24756,13 @@
         <v>5331</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C368" s="8">
         <v>350585280150513</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="E368" s="8" t="s">
         <v>193</v>
@@ -24777,7 +24774,7 @@
       <c r="J368" s="8"/>
       <c r="K368" s="8"/>
       <c r="L368" s="8" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="M368" s="8"/>
       <c r="N368" s="8"/>
@@ -24792,13 +24789,13 @@
         <v>5332</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C369" s="6">
         <v>350585280153269</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E369" s="6" t="s">
         <v>193</v>
@@ -24823,13 +24820,13 @@
         <v>5333</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C370" s="8">
         <v>350585280153434</v>
       </c>
       <c r="D370" s="8" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="E370" s="8" t="s">
         <v>193</v>
@@ -24854,13 +24851,13 @@
         <v>5334</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C371" s="6">
         <v>350585280151339</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E371" s="6" t="s">
         <v>193</v>
@@ -24870,23 +24867,23 @@
         <v>45638</v>
       </c>
       <c r="H371" s="6" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I371" s="6" t="s">
         <v>2092</v>
-      </c>
-      <c r="I371" s="6" t="s">
-        <v>2093</v>
       </c>
       <c r="J371" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K371" s="6" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="L371" s="6">
         <v>548529309</v>
       </c>
       <c r="M371" s="6"/>
       <c r="N371" s="6" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="O371" s="6">
         <v>880</v>
@@ -24905,13 +24902,13 @@
         <v>5335</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C372" s="8">
         <v>350585280151362</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="E372" s="8" t="s">
         <v>193</v>
@@ -24936,11 +24933,11 @@
         <v>5336</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C373" s="22"/>
       <c r="D373" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E373" s="6" t="s">
         <v>193</v>
@@ -24967,11 +24964,11 @@
         <v>5337</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C374" s="24"/>
       <c r="D374" s="8" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="E374" s="8" t="s">
         <v>193</v>
@@ -24980,26 +24977,26 @@
         <v>350585280143302</v>
       </c>
       <c r="G374" s="8" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="H374" s="8" t="s">
         <v>1408</v>
       </c>
       <c r="I374" s="8" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="J374" s="8" t="s">
         <v>1164</v>
       </c>
       <c r="K374" s="8" t="s">
+        <v>2103</v>
+      </c>
+      <c r="L374" s="8" t="s">
         <v>2104</v>
-      </c>
-      <c r="L374" s="8" t="s">
-        <v>2105</v>
       </c>
       <c r="M374" s="8"/>
       <c r="N374" s="8" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="O374" s="8">
         <v>880</v>
@@ -25018,11 +25015,11 @@
         <v>5338</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="C375" s="22"/>
       <c r="D375" s="6" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="E375" s="6" t="s">
         <v>193</v>
@@ -25049,11 +25046,11 @@
         <v>5339</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C376" s="24"/>
       <c r="D376" s="8" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E376" s="8" t="s">
         <v>193</v>
@@ -25068,20 +25065,20 @@
         <v>518</v>
       </c>
       <c r="I376" s="8" t="s">
+        <v>2110</v>
+      </c>
+      <c r="J376" s="8" t="s">
         <v>2111</v>
       </c>
-      <c r="J376" s="8" t="s">
+      <c r="K376" s="8" t="s">
         <v>2112</v>
       </c>
-      <c r="K376" s="8" t="s">
+      <c r="L376" s="8" t="s">
         <v>2113</v>
-      </c>
-      <c r="L376" s="8" t="s">
-        <v>2114</v>
       </c>
       <c r="M376" s="8"/>
       <c r="N376" s="8" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="O376" s="8">
         <v>880</v>
@@ -25090,7 +25087,7 @@
         <v>317733400</v>
       </c>
       <c r="Q376" s="8" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="R376" s="8"/>
       <c r="S376" s="8"/>
@@ -25100,13 +25097,13 @@
         <v>5340</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C377" s="6">
         <v>350585280142916</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E377" s="6" t="s">
         <v>193</v>
@@ -25131,11 +25128,11 @@
         <v>5341</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C378" s="24"/>
       <c r="D378" s="8" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="E378" s="8" t="s">
         <v>193</v>
@@ -25162,13 +25159,13 @@
         <v>5342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C379" s="6">
         <v>350585280142585</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E379" s="6" t="s">
         <v>193</v>
@@ -25193,11 +25190,11 @@
         <v>5343</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C380" s="24"/>
       <c r="D380" s="8" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="E380" s="8" t="s">
         <v>193</v>
@@ -25224,11 +25221,11 @@
         <v>5344</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C381" s="22"/>
       <c r="D381" s="6" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E381" s="6" t="s">
         <v>193</v>
@@ -25255,13 +25252,13 @@
         <v>5345</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C382" s="8">
         <v>350585280140217</v>
       </c>
       <c r="D382" s="8" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E382" s="8" t="s">
         <v>193</v>
@@ -25286,13 +25283,13 @@
         <v>5346</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C383" s="6">
         <v>350585280151230</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E383" s="6" t="s">
         <v>193</v>
@@ -25319,11 +25316,11 @@
         <v>5347</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C384" s="24"/>
       <c r="D384" s="8" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E384" s="8" t="s">
         <v>193</v>
@@ -25348,13 +25345,13 @@
         <v>5348</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C385" s="6">
         <v>350585280142650</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E385" s="6" t="s">
         <v>193</v>
@@ -25381,11 +25378,11 @@
         <v>5349</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C386" s="24"/>
       <c r="D386" s="8" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E386" s="8" t="s">
         <v>193</v>
@@ -25412,13 +25409,13 @@
         <v>5350</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C387" s="6">
         <v>350585280142882</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="E387" s="6" t="s">
         <v>193</v>
@@ -25443,11 +25440,11 @@
         <v>5351</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C388" s="24"/>
       <c r="D388" s="8" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="E388" s="8" t="s">
         <v>193</v>
@@ -25460,20 +25457,20 @@
         <v>1385</v>
       </c>
       <c r="I388" s="8" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="J388" s="8" t="s">
         <v>162</v>
       </c>
       <c r="K388" s="8" t="s">
+        <v>2141</v>
+      </c>
+      <c r="L388" s="8" t="s">
         <v>2142</v>
-      </c>
-      <c r="L388" s="8" t="s">
-        <v>2143</v>
       </c>
       <c r="M388" s="8"/>
       <c r="N388" s="8" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="O388" s="8">
         <v>880</v>
@@ -25492,11 +25489,11 @@
         <v>5352</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="C389" s="22"/>
       <c r="D389" s="6" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E389" s="6" t="s">
         <v>193</v>
@@ -25505,7 +25502,7 @@
         <v>350585280151164</v>
       </c>
       <c r="G389" s="6" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="H389" s="6" t="s">
         <v>518</v>
@@ -25543,11 +25540,11 @@
         <v>5353</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="C390" s="24"/>
       <c r="D390" s="8" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E390" s="8" t="s">
         <v>193</v>
@@ -25556,7 +25553,7 @@
         <v>350585280142924</v>
       </c>
       <c r="G390" s="8" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H390" s="8" t="s">
         <v>518</v>
@@ -25594,11 +25591,11 @@
         <v>5354</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="C391" s="22"/>
       <c r="D391" s="6" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E391" s="6" t="s">
         <v>193</v>
@@ -25607,26 +25604,26 @@
         <v>350585280142635</v>
       </c>
       <c r="G391" s="6" t="s">
+        <v>2150</v>
+      </c>
+      <c r="H391" s="6" t="s">
         <v>2151</v>
       </c>
-      <c r="H391" s="6" t="s">
+      <c r="I391" s="6" t="s">
         <v>2152</v>
-      </c>
-      <c r="I391" s="6" t="s">
-        <v>2153</v>
       </c>
       <c r="J391" s="6" t="s">
         <v>1164</v>
       </c>
       <c r="K391" s="6" t="s">
+        <v>2153</v>
+      </c>
+      <c r="L391" s="6" t="s">
         <v>2154</v>
-      </c>
-      <c r="L391" s="6" t="s">
-        <v>2155</v>
       </c>
       <c r="M391" s="6"/>
       <c r="N391" s="6" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="O391" s="6">
         <v>930</v>
@@ -25635,7 +25632,7 @@
         <v>27891415</v>
       </c>
       <c r="Q391" s="6" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="R391" s="6"/>
       <c r="S391" s="6">
@@ -25655,7 +25652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A20716-F9BD-496B-9CCD-B3DD29AF7F25}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -25681,52 +25678,52 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2159</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2161</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2167</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>2168</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>2164</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2165</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2166</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>2</v>
@@ -25749,7 +25746,7 @@
         <v>851221555</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>193</v>
@@ -25764,7 +25761,7 @@
         <v>1385</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>162</v>
@@ -25773,11 +25770,11 @@
         <v>685</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="44" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="O2" s="6">
         <v>930</v>
@@ -25786,7 +25783,7 @@
         <v>230141025</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6">
@@ -25804,10 +25801,10 @@
         <v>254789654</v>
       </c>
       <c r="D3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E3" t="s">
         <v>2175</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2176</v>
       </c>
       <c r="G3" s="45">
         <v>45608</v>
@@ -25822,13 +25819,13 @@
         <v>112</v>
       </c>
       <c r="K3" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="L3" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="N3" s="46" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="O3">
         <v>800</v>
@@ -25866,16 +25863,16 @@
         <v>419</v>
       </c>
       <c r="K4" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="L4" t="s">
+        <v>2179</v>
+      </c>
+      <c r="M4" t="s">
         <v>2180</v>
       </c>
-      <c r="M4" t="s">
-        <v>2181</v>
-      </c>
       <c r="N4" s="46" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="O4">
         <v>820</v>
@@ -25884,7 +25881,7 @@
         <v>258741203</v>
       </c>
       <c r="Q4" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -25898,13 +25895,13 @@
         <v>258963258</v>
       </c>
       <c r="D5" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="E5" t="s">
         <v>193</v>
       </c>
       <c r="Q5" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -25936,13 +25933,13 @@
         <v>419</v>
       </c>
       <c r="K6" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="L6" t="s">
+        <v>2186</v>
+      </c>
+      <c r="N6" s="46" t="s">
         <v>2187</v>
-      </c>
-      <c r="N6" s="46" t="s">
-        <v>2188</v>
       </c>
       <c r="O6">
         <v>880</v>
@@ -25965,10 +25962,10 @@
         <v>258963214</v>
       </c>
       <c r="D7" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E7" t="s">
         <v>2189</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2190</v>
       </c>
       <c r="G7" s="45">
         <v>45628</v>
@@ -25977,7 +25974,7 @@
         <v>675</v>
       </c>
       <c r="I7" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="L7">
         <v>5321478562</v>
@@ -26078,7 +26075,7 @@
         <v>533125704</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="O9" s="6">
         <v>880</v>
@@ -26096,13 +26093,13 @@
         <v>5242</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C10" s="6">
         <v>351672996734431</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>193</v>
@@ -26112,23 +26109,23 @@
         <v>45580</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>1663</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>1664</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>162</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="L10" s="6">
         <v>583246050</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="O10" s="6">
         <v>880</v>
